--- a/Arquivos_logs/remocao_R/Contornos/Configuracao.xlsx
+++ b/Arquivos_logs/remocao_R/Contornos/Configuracao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\TI - Sistemas\UAT\ChuvaVazao\remocao_R\Contornos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837E1E5E-B0C5-4BFD-9E0E-FB0A9482037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082986A8-23EF-47FB-852A-D8B7782AFD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="425">
   <si>
     <t>Uniao da Vitoria</t>
   </si>
@@ -1296,6 +1296,18 @@
   </si>
   <si>
     <t>Barra do Braúna</t>
+  </si>
+  <si>
+    <t>PSATSUIC</t>
+  </si>
+  <si>
+    <t>Suiça</t>
+  </si>
+  <si>
+    <t>Santa Maria da Vitoria</t>
+  </si>
+  <si>
+    <t>UHESuica_ajustGEFS</t>
   </si>
 </sst>
 </file>
@@ -1428,9 +1440,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1468,9 +1480,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1503,26 +1515,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1555,26 +1550,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1749,10 +1727,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+      <selection activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6384,6 +6362,26 @@
         <v>418</v>
       </c>
     </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E119" s="7">
+        <v>-20.079999999999998</v>
+      </c>
+      <c r="F119" s="7">
+        <v>-40.58</v>
+      </c>
+      <c r="J119" t="s">
+        <v>423</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
